--- a/src/main/AllyisApps/Resources/Files/UserImportTemplate.xlsx
+++ b/src/main/AllyisApps/Resources/Files/UserImportTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="AboutImporting" sheetId="3" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>WA</t>
-  </si>
-  <si>
     <t>Importing Users</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>wfake@fake.com</t>
+  </si>
+  <si>
+    <t>Washington</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1046,13 +1046,13 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:1" ht="384.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1082,7 @@
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -1093,128 +1093,128 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1">
         <v>30682</v>
       </c>
       <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
       </c>
       <c r="L2" t="s">
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="N2">
         <v>12345</v>
       </c>
       <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
         <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
       </c>
       <c r="I3" s="1">
         <v>29038</v>
       </c>
       <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
       </c>
       <c r="L3" t="s">
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>23456</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1243,35 +1243,35 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1297,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
@@ -1305,107 +1305,107 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1">
         <v>31081</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="I2">
         <v>34567</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1">
         <v>28220</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="I3">
         <v>45678</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/AllyisApps/Resources/Files/UserImportTemplate.xlsx
+++ b/src/main/AllyisApps/Resources/Files/UserImportTemplate.xlsx
@@ -12,23 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
-    <sheet name="AboutImporting" sheetId="3" r:id="rId1"/>
+    <sheet name="About Importing" sheetId="3" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
-    <sheet name="Split1" sheetId="1" r:id="rId3"/>
-    <sheet name="Split2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
-  <si>
-    <t>(Required:)</t>
-  </si>
-  <si>
-    <t>(Optional:)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>United States</t>
   </si>
@@ -36,13 +28,6 @@
     <t>Importing Users</t>
   </si>
   <si>
-    <t xml:space="preserve">      To import users in bulk from a spreadsheet, all you need is to have your data organized under the correct column headers. AllyisApps will recognize the column header names and import the items on each row. See the next worksheet in this workbook for examples.
-     The required columns are User Email, User First Name, User Last Name, and Employee Id (note the lowercase d). You must have all four to import a user, though they do not necessarily have to be on the same worksheet. Optionally, you can also include User Name, User Date Of Birth, User Address, User City, User State, User Country, User Postal Code, User Phone Number, and/or User Phone Extension.
-     You can have the user information spread accross multiple worksheets if you like, as long as some link exists between them. For example, you could have one worksheet with User First Name, User Last Name, and User Email,  another with User Email and Employee Id, and a third with User Email and the other optional columns. As long as the four required columns exist and entries on them can be linked together by some column column (in this example, User Email), the users will be imported. User First Name and User Last Name are treated as one piece of information and must always be together on the same worksheet, since individually each is not uniquely identifying. If all the required information is not present and cannot be found by linking through other worksheets, you will see a corresponding error notification at the end of the import.
-     Any unrecognized column headers will simply be ignored, as will blank rows. For example, this "AboutImporting" worksheet will have no effect on an import because it contains no relevant column headers.
-     You do not have to import users separately from customers, projects or time entries. All can be imported at once from the same workbook, and all import links on AllyisApps can import any type of information, regardless of where on the site you get to it from. See the Template examples from the Customers page and Time Entry Index page for information on importing customers, projects, and time entries.</t>
-  </si>
-  <si>
     <t>User Last Name</t>
   </si>
   <si>
@@ -85,21 +70,12 @@
     <t>Smith</t>
   </si>
   <si>
-    <t>Jones</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
     <t>Fred</t>
   </si>
   <si>
-    <t>bsmith@example.com</t>
-  </si>
-  <si>
-    <t>fjones@example.com</t>
-  </si>
-  <si>
     <t>EMP-0001</t>
   </si>
   <si>
@@ -133,49 +109,46 @@
     <t>x321</t>
   </si>
   <si>
-    <t>Exampleton</t>
-  </si>
-  <si>
-    <t>Fakename</t>
-  </si>
-  <si>
     <t>Alice</t>
   </si>
   <si>
-    <t>Wilma</t>
-  </si>
-  <si>
     <t>EMP-0003</t>
   </si>
   <si>
-    <t>EMP-0004</t>
-  </si>
-  <si>
-    <t>1111 One st</t>
-  </si>
-  <si>
-    <t>9999 Nine st</t>
-  </si>
-  <si>
-    <t>Placeburg</t>
-  </si>
-  <si>
-    <t>Coveglen</t>
-  </si>
-  <si>
-    <t>x456</t>
-  </si>
-  <si>
-    <t>x654</t>
-  </si>
-  <si>
-    <t>aexamp@fake.com</t>
-  </si>
-  <si>
-    <t>wfake@fake.com</t>
-  </si>
-  <si>
     <t>Washington</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>fexample@import.com</t>
+  </si>
+  <si>
+    <t>bsmith@import.com</t>
+  </si>
+  <si>
+    <t>asample@import.com</t>
+  </si>
+  <si>
+    <t>AliceSample</t>
+  </si>
+  <si>
+    <t>2357 Prime st</t>
+  </si>
+  <si>
+    <t>Burgcity</t>
+  </si>
+  <si>
+    <t>01234</t>
+  </si>
+  <si>
+    <t>x231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     The next sheet ("Users") demonstrates how to import users in bulk. Required columns have bold column headers in this example (you don't need to use bold for importing), and optional column headers are not bold. It is important that you spell the columns headers exactly as you see them here, but it does not matter what order the columns are in or if there are additional columns with other headers (they will be ignored). You may have empty cells in any of the non-required columns, but leaving out any of the information in the (bold) required columns will result in an error and a failure to import that user.</t>
   </si>
 </sst>
 </file>
@@ -668,7 +641,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -677,6 +650,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1036,7 +1011,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,13 +1021,13 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:1" ht="384.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1062,357 +1037,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="6">
+        <v>27660</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30682</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="7">
+        <v>12345</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F4" s="1">
+        <v>29038</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1">
-        <v>30682</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="7">
+        <v>23456</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2">
-        <v>12345</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1">
-        <v>29038</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3">
-        <v>23456</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1">
-        <v>31081</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2">
-        <v>34567</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1">
-        <v>28220</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3">
-        <v>45678</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <ignoredErrors>
+    <ignoredError sqref="K2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>